--- a/Files/Sales.xlsx
+++ b/Files/Sales.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8910"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,53 +24,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Vno</t>
-  </si>
-  <si>
-    <t>Vdate</t>
-  </si>
-  <si>
-    <t>Sales Account</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Narration</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>SHAHUL</t>
-  </si>
-  <si>
-    <t>Nar1</t>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>VoucherNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SalesAccount</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>Sale1</t>
+  </si>
+  <si>
+    <t>Item1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +106,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,118 +397,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="3">
+        <v>45453</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45457</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45453</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1250</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
